--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BFD032-5A02-A24C-816E-18FFB3C33929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B82D4-1B4A-2A42-B7D0-98332F3ACEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1213">
   <si>
     <t>Region</t>
   </si>
@@ -3378,30 +3378,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3653,6 +3629,60 @@
   </si>
   <si>
     <t>testlast</t>
+  </si>
+  <si>
+    <t>Case Allocator</t>
+  </si>
+  <si>
+    <t>Task Supervisor</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4987,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -5741,7 +5771,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -6585,7 +6615,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -7463,34 +7493,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B4" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7498,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7506,15 +7536,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7522,15 +7552,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="B9" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7538,7 +7568,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7546,7 +7576,7 @@
         <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7554,7 +7584,7 @@
         <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7562,7 +7592,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7570,7 +7600,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7578,7 +7608,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7586,7 +7616,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7594,7 +7624,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7602,7 +7632,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7610,7 +7640,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7618,7 +7648,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7626,15 +7656,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -7648,10 +7678,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7688,7 +7718,7 @@
     <col min="30" max="30" width="9.1640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>1107</v>
       </c>
@@ -7714,7 +7744,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>54</v>
@@ -7726,69 +7756,75 @@
         <v>411</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>57</v>
+        <v>1197</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1113</v>
+        <v>1198</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>58</v>
+        <v>1199</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1112</v>
+        <v>1200</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>59</v>
+        <v>1201</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1114</v>
+        <v>1202</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>60</v>
+        <v>1203</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1115</v>
+        <v>1204</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>61</v>
+        <v>1205</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1116</v>
+        <v>1206</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>62</v>
+        <v>1207</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1117</v>
+        <v>1208</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>63</v>
+        <v>1209</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1118</v>
+        <v>1210</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>64</v>
+        <v>1211</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1119</v>
+        <v>1212</v>
       </c>
       <c r="AC1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="43" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -7819,7 +7855,7 @@
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
@@ -7861,13 +7897,13 @@
         <v/>
       </c>
       <c r="AC2" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD2" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
@@ -7932,7 +7968,7 @@
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
@@ -7997,7 +8033,7 @@
       <c r="AC4" s="41"/>
       <c r="AD4" s="41"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
@@ -8062,7 +8098,7 @@
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -8127,7 +8163,7 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
@@ -8192,7 +8228,7 @@
       <c r="AC7" s="41"/>
       <c r="AD7" s="41"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -8257,7 +8293,7 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -8322,7 +8358,7 @@
       <c r="AC9" s="41"/>
       <c r="AD9" s="41"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -8387,7 +8423,7 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -8452,7 +8488,7 @@
       <c r="AC11" s="41"/>
       <c r="AD11" s="41"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -8517,7 +8553,7 @@
       <c r="AC12" s="41"/>
       <c r="AD12" s="41"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -8582,7 +8618,7 @@
       <c r="AC13" s="41"/>
       <c r="AD13" s="41"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -8647,7 +8683,7 @@
       <c r="AC14" s="41"/>
       <c r="AD14" s="41"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -8712,7 +8748,7 @@
       <c r="AC15" s="41"/>
       <c r="AD15" s="41"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -10988,7 +11024,7 @@
       <c r="AD50" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6oyb3rRRfKDqti5GQJdNRgETALv5BhypIRzP7ad5VgVRdJpgy9LUEIpAIaOgXLHmnqidCaz2KGK7nd1sygRpVQ==" saltValue="jaug0yiNYL4uUSxB9UIkgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -11062,7 +11098,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11103,7 +11139,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11111,47 +11147,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11159,7 +11195,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11167,7 +11203,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11175,7 +11211,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11183,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11191,7 +11227,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11199,7 +11235,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11207,7 +11243,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11215,7 +11251,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11223,7 +11259,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11231,7 +11267,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11239,7 +11275,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11247,7 +11283,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11255,7 +11291,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11263,7 +11299,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11271,7 +11307,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11279,7 +11315,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11287,7 +11323,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11295,7 +11331,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11303,7 +11339,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11311,7 +11347,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11319,7 +11355,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11327,7 +11363,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11335,7 +11371,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11343,7 +11379,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11351,7 +11387,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11359,7 +11395,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11367,7 +11403,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11375,7 +11411,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11383,7 +11419,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11391,7 +11427,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11399,7 +11435,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11407,7 +11443,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11415,7 +11451,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11423,7 +11459,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11431,7 +11467,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11439,7 +11475,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11447,7 +11483,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11455,7 +11491,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -18841,7 +18877,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B82D4-1B4A-2A42-B7D0-98332F3ACEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA5E49-DF53-4C43-8421-42163C1829E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
     <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1221">
   <si>
     <t>Region</t>
   </si>
@@ -3683,6 +3683,30 @@
   </si>
   <si>
     <t>Service8 ID</t>
+  </si>
+  <si>
+    <t>Hearing Centre Team Leader </t>
+  </si>
+  <si>
+    <t>Hearing Centre Administrator</t>
+  </si>
+  <si>
+    <t>Court Clerk</t>
+  </si>
+  <si>
+    <t>National Business Centre Team leader</t>
+  </si>
+  <si>
+    <t>National Business Centre Listing team</t>
+  </si>
+  <si>
+    <t>National Business Centre Payments team</t>
+  </si>
+  <si>
+    <t>CTSC team leader</t>
+  </si>
+  <si>
+    <t>CTSC Administrator</t>
   </si>
 </sst>
 </file>
@@ -7680,7 +7704,7 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
@@ -11113,7 +11137,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IrVQ7Ukz2v/R7gQxangUL5wAqS1715tiGhzT8zLeCz8UJwUIBrCLI/UycSYlC8mt/P4bgWL9vpSls59MeyEaVg==" saltValue="9syDTPxVg8TLEzOvGTicbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11495,7 +11518,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aMZLA0VNhh5Onc5JvFgRcO+m2AuGfgKZ7BoJklGYjHaipO31AQ3xGW7Ut3i3WYaf9wFLoxFNYPTBp+0/KJwncA==" saltValue="2GsNMsCJLWlXXOIX1gAyDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18727,7 +18749,6 @@
     <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m8UckgdD1dcYD9lqf4mZ6sweQUAjls9wUBQbAbH6Fx4sDdSYOTY5ss+Y9DW0iJlEs+St9Rf87Aa3SmKNJ6YBnQ==" saltValue="jfT1mkCRVBT5GRvlbF+nFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A287" r:id="rId1" display="https://courttribunalfinder.service.gov.uk/courts/sunderland-county-family-magistrates-and-tribunal-hearings" xr:uid="{E75D3469-3062-4D00-9760-56E3C0055DF4}"/>
   </hyperlinks>
@@ -18821,7 +18842,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Dzbl1Vp2as7XYFJXUh3e5BVC8sA06Mwnij3IjqsMXS9OIFgu8FBluC3Lbx7+HH6n1k9gv2FDDtFo6g8N0a+SA==" saltValue="2ONKPZCzYuddgylpf3RncA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18831,10 +18851,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18859,8 +18879,71 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18886,7 +18969,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA74B2C-6974-5D49-9414-D3E7945009D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DA604-1811-B542-8A34-D1337B96C5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
@@ -3718,10 +3718,10 @@
     <t>Regional Centre Administrator</t>
   </si>
   <si>
-    <t>DWP Administrator</t>
-  </si>
-  <si>
-    <t>HMRC Administrator</t>
+    <t>DWP Caseworker</t>
+  </si>
+  <si>
+    <t>HMRC Caseworker</t>
   </si>
 </sst>
 </file>

--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DA604-1811-B542-8A34-D1337B96C5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C49AAE-B82C-D440-8315-DF6E94475C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1268,12 +1266,6 @@
     <t>York Magistrates' Court and Family Court</t>
   </si>
   <si>
-    <t>Senior Tribunal Caseworker</t>
-  </si>
-  <si>
-    <t>Tribunal Caseworker</t>
-  </si>
-  <si>
     <t>Primary Role</t>
   </si>
   <si>
@@ -3722,6 +3714,12 @@
   </si>
   <si>
     <t>HMRC Caseworker</t>
+  </si>
+  <si>
+    <t>Senior Legal Caseworker</t>
+  </si>
+  <si>
+    <t>Legal Caseworker</t>
   </si>
 </sst>
 </file>
@@ -5028,7 +5026,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5812,7 +5810,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -6656,7 +6654,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" s="30" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -7534,34 +7532,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7569,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7577,15 +7575,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7593,15 +7591,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7609,23 +7607,23 @@
         <v>54</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7633,7 +7631,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7641,7 +7639,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7649,7 +7647,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7657,7 +7655,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7665,7 +7663,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7673,7 +7671,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7681,7 +7679,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7689,7 +7687,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7697,15 +7695,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -7721,8 +7719,8 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7761,111 +7759,111 @@
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>1107</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1109</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M1" s="37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>1197</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="P1" s="28" t="s">
         <v>1198</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="Q1" s="38" t="s">
         <v>1199</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="S1" s="37" t="s">
         <v>1201</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>1203</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>1204</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="W1" s="37" t="s">
         <v>1205</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>1206</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>1207</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>1209</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>1210</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>1212</v>
       </c>
       <c r="AC1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AE1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AF1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>5</v>
@@ -7892,11 +7890,11 @@
         <v>52</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>409</v>
+        <v>1225</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
@@ -7938,7 +7936,7 @@
         <v/>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AD2" s="40" t="s">
         <v>51</v>
@@ -11139,7 +11137,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11179,7 +11177,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11187,47 +11185,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11235,7 +11233,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11243,7 +11241,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11251,7 +11249,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11259,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11267,7 +11265,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11275,7 +11273,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11283,7 +11281,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11291,7 +11289,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11299,7 +11297,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11307,7 +11305,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11315,7 +11313,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11323,7 +11321,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11331,7 +11329,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11339,7 +11337,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11347,7 +11345,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11355,7 +11353,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11363,7 +11361,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11371,7 +11369,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11379,7 +11377,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11387,7 +11385,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11395,7 +11393,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11403,7 +11401,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11411,7 +11409,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11419,7 +11417,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11427,7 +11425,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11435,7 +11433,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11443,7 +11441,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11451,7 +11449,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11459,7 +11457,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11467,7 +11465,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11475,7 +11473,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11483,7 +11481,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11491,7 +11489,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11499,7 +11497,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11507,7 +11505,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11515,7 +11513,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11523,7 +11521,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11531,7 +11529,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -11564,22 +11562,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11594,10 +11592,10 @@
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11612,10 +11610,10 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11629,13 +11627,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11649,13 +11647,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11669,13 +11667,13 @@
         <v>66</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11689,13 +11687,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>417</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11710,10 +11708,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11727,13 +11725,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11747,13 +11745,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11767,13 +11765,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11787,13 +11785,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11807,13 +11805,13 @@
         <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11827,13 +11825,13 @@
         <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11847,13 +11845,13 @@
         <v>66</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11867,13 +11865,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11887,13 +11885,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11907,13 +11905,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11927,13 +11925,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11947,13 +11945,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11967,13 +11965,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11987,13 +11985,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12007,13 +12005,13 @@
         <v>67</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12027,13 +12025,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12047,13 +12045,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12067,13 +12065,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12087,13 +12085,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12107,13 +12105,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12127,13 +12125,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12147,13 +12145,13 @@
         <v>67</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12167,13 +12165,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12187,13 +12185,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12207,13 +12205,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12227,13 +12225,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12247,13 +12245,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12268,10 +12266,10 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12285,13 +12283,13 @@
         <v>65</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12305,13 +12303,13 @@
         <v>67</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12319,19 +12317,19 @@
         <v>106</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12345,13 +12343,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12365,13 +12363,13 @@
         <v>65</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12385,13 +12383,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12405,13 +12403,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12425,13 +12423,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12445,13 +12443,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12465,13 +12463,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12485,13 +12483,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12505,13 +12503,13 @@
         <v>66</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12525,13 +12523,13 @@
         <v>66</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12545,13 +12543,13 @@
         <v>66</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12565,13 +12563,13 @@
         <v>65</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12585,13 +12583,13 @@
         <v>65</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12605,13 +12603,13 @@
         <v>65</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12625,13 +12623,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12645,13 +12643,13 @@
         <v>4</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12665,13 +12663,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12685,13 +12683,13 @@
         <v>67</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12705,13 +12703,13 @@
         <v>67</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12725,13 +12723,13 @@
         <v>66</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12746,10 +12744,10 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12763,13 +12761,13 @@
         <v>66</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12783,13 +12781,13 @@
         <v>66</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12803,13 +12801,13 @@
         <v>66</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12823,13 +12821,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12843,13 +12841,13 @@
         <v>66</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12863,13 +12861,13 @@
         <v>66</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12884,10 +12882,10 @@
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12902,10 +12900,10 @@
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12920,10 +12918,10 @@
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12938,10 +12936,10 @@
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12955,13 +12953,13 @@
         <v>67</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12975,13 +12973,13 @@
         <v>67</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12996,10 +12994,10 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13013,13 +13011,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13033,13 +13031,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13053,13 +13051,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13073,13 +13071,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13093,13 +13091,13 @@
         <v>66</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13113,13 +13111,13 @@
         <v>66</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13133,13 +13131,13 @@
         <v>65</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13153,13 +13151,13 @@
         <v>67</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13173,13 +13171,13 @@
         <v>67</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13193,13 +13191,13 @@
         <v>67</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13213,13 +13211,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13233,13 +13231,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13253,13 +13251,13 @@
         <v>4</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13273,13 +13271,13 @@
         <v>66</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13293,13 +13291,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13313,13 +13311,13 @@
         <v>5</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13333,13 +13331,13 @@
         <v>66</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13353,13 +13351,13 @@
         <v>67</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13373,13 +13371,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13393,13 +13391,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13414,10 +13412,10 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13431,13 +13429,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13451,13 +13449,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13471,13 +13469,13 @@
         <v>66</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13491,13 +13489,13 @@
         <v>5</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13511,13 +13509,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13531,13 +13529,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13545,19 +13543,19 @@
         <v>167</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13571,13 +13569,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13592,10 +13590,10 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13609,13 +13607,13 @@
         <v>6</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13629,13 +13627,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13649,13 +13647,13 @@
         <v>4</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13669,13 +13667,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13689,13 +13687,13 @@
         <v>4</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13709,13 +13707,13 @@
         <v>4</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13730,10 +13728,10 @@
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13748,10 +13746,10 @@
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13764,10 +13762,10 @@
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13781,13 +13779,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13801,13 +13799,13 @@
         <v>4</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13821,13 +13819,13 @@
         <v>65</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13841,13 +13839,13 @@
         <v>65</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13861,13 +13859,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13881,13 +13879,13 @@
         <v>66</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13901,13 +13899,13 @@
         <v>4</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13921,13 +13919,13 @@
         <v>6</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13942,10 +13940,10 @@
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13960,10 +13958,10 @@
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13977,13 +13975,13 @@
         <v>65</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13997,13 +13995,13 @@
         <v>65</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14017,13 +14015,13 @@
         <v>66</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14037,13 +14035,13 @@
         <v>6</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14057,13 +14055,13 @@
         <v>6</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14077,13 +14075,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14097,13 +14095,13 @@
         <v>66</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14118,10 +14116,10 @@
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14135,13 +14133,13 @@
         <v>4</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14155,13 +14153,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14175,13 +14173,13 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14195,13 +14193,13 @@
         <v>66</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14215,13 +14213,13 @@
         <v>66</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14235,13 +14233,13 @@
         <v>4</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14255,13 +14253,13 @@
         <v>65</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14276,10 +14274,10 @@
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14293,13 +14291,13 @@
         <v>4</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14313,13 +14311,13 @@
         <v>5</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14333,13 +14331,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14353,13 +14351,13 @@
         <v>66</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14373,13 +14371,13 @@
         <v>66</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14393,13 +14391,13 @@
         <v>4</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14413,13 +14411,13 @@
         <v>66</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14433,13 +14431,13 @@
         <v>66</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14453,13 +14451,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14473,13 +14471,13 @@
         <v>6</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14493,13 +14491,13 @@
         <v>6</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14513,13 +14511,13 @@
         <v>66</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14533,13 +14531,13 @@
         <v>4</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14554,10 +14552,10 @@
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14572,10 +14570,10 @@
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14589,13 +14587,13 @@
         <v>66</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14609,13 +14607,13 @@
         <v>66</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14629,13 +14627,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14649,13 +14647,13 @@
         <v>65</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14669,13 +14667,13 @@
         <v>65</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14689,13 +14687,13 @@
         <v>4</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14709,13 +14707,13 @@
         <v>5</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14729,13 +14727,13 @@
         <v>66</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14749,13 +14747,13 @@
         <v>4</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14769,13 +14767,13 @@
         <v>4</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14789,13 +14787,13 @@
         <v>6</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14809,13 +14807,13 @@
         <v>6</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14829,13 +14827,13 @@
         <v>67</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14849,13 +14847,13 @@
         <v>67</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14869,13 +14867,13 @@
         <v>4</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14889,13 +14887,13 @@
         <v>4</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14909,13 +14907,13 @@
         <v>6</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14929,13 +14927,13 @@
         <v>6</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14949,13 +14947,13 @@
         <v>6</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14969,13 +14967,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14989,13 +14987,13 @@
         <v>6</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15009,13 +15007,13 @@
         <v>5</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15029,13 +15027,13 @@
         <v>5</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15049,13 +15047,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15069,13 +15067,13 @@
         <v>66</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15089,13 +15087,13 @@
         <v>67</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15109,13 +15107,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15129,13 +15127,13 @@
         <v>5</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15149,13 +15147,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15169,13 +15167,13 @@
         <v>67</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15189,13 +15187,13 @@
         <v>67</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15209,13 +15207,13 @@
         <v>67</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15230,10 +15228,10 @@
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15248,10 +15246,10 @@
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15266,10 +15264,10 @@
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15283,13 +15281,13 @@
         <v>4</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15303,13 +15301,13 @@
         <v>5</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15323,13 +15321,13 @@
         <v>66</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15343,13 +15341,13 @@
         <v>66</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15363,13 +15361,13 @@
         <v>66</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15383,13 +15381,13 @@
         <v>66</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15403,13 +15401,13 @@
         <v>66</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15423,13 +15421,13 @@
         <v>67</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15443,13 +15441,13 @@
         <v>67</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15463,13 +15461,13 @@
         <v>67</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15483,13 +15481,13 @@
         <v>67</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15503,13 +15501,13 @@
         <v>67</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15523,13 +15521,13 @@
         <v>67</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15543,13 +15541,13 @@
         <v>5</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15563,13 +15561,13 @@
         <v>66</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15584,10 +15582,10 @@
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15601,13 +15599,13 @@
         <v>66</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15621,13 +15619,13 @@
         <v>66</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15642,10 +15640,10 @@
       </c>
       <c r="D207" s="14"/>
       <c r="E207" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15659,13 +15657,13 @@
         <v>6</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15679,13 +15677,13 @@
         <v>66</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15699,13 +15697,13 @@
         <v>66</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15720,10 +15718,10 @@
       </c>
       <c r="D211" s="14"/>
       <c r="E211" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15737,13 +15735,13 @@
         <v>6</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15757,13 +15755,13 @@
         <v>6</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15777,13 +15775,13 @@
         <v>6</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15797,13 +15795,13 @@
         <v>6</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15818,10 +15816,10 @@
       </c>
       <c r="D216" s="14"/>
       <c r="E216" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15836,10 +15834,10 @@
       </c>
       <c r="D217" s="14"/>
       <c r="E217" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15854,10 +15852,10 @@
       </c>
       <c r="D218" s="14"/>
       <c r="E218" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15872,10 +15870,10 @@
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15889,13 +15887,13 @@
         <v>65</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15909,13 +15907,13 @@
         <v>6</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15929,13 +15927,13 @@
         <v>6</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15949,13 +15947,13 @@
         <v>65</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15969,13 +15967,13 @@
         <v>5</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15989,13 +15987,13 @@
         <v>6</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16009,13 +16007,13 @@
         <v>5</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16029,13 +16027,13 @@
         <v>5</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16049,13 +16047,13 @@
         <v>5</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16069,13 +16067,13 @@
         <v>66</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16089,13 +16087,13 @@
         <v>66</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16109,13 +16107,13 @@
         <v>66</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16129,13 +16127,13 @@
         <v>5</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16149,13 +16147,13 @@
         <v>5</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16169,13 +16167,13 @@
         <v>66</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16189,13 +16187,13 @@
         <v>66</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16209,13 +16207,13 @@
         <v>66</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16229,13 +16227,13 @@
         <v>66</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16249,13 +16247,13 @@
         <v>6</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16269,13 +16267,13 @@
         <v>65</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16289,13 +16287,13 @@
         <v>65</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16309,13 +16307,13 @@
         <v>65</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16330,10 +16328,10 @@
       </c>
       <c r="D242" s="14"/>
       <c r="E242" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16347,13 +16345,13 @@
         <v>65</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16368,10 +16366,10 @@
       </c>
       <c r="D244" s="14"/>
       <c r="E244" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16385,13 +16383,13 @@
         <v>65</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16405,13 +16403,13 @@
         <v>65</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16426,10 +16424,10 @@
       </c>
       <c r="D247" s="14"/>
       <c r="E247" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16443,13 +16441,13 @@
         <v>67</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16463,13 +16461,13 @@
         <v>67</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16483,13 +16481,13 @@
         <v>67</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16503,13 +16501,13 @@
         <v>66</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16523,13 +16521,13 @@
         <v>66</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16543,13 +16541,13 @@
         <v>66</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16563,13 +16561,13 @@
         <v>66</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16583,13 +16581,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16603,13 +16601,13 @@
         <v>67</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16623,13 +16621,13 @@
         <v>67</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16643,13 +16641,13 @@
         <v>4</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16663,13 +16661,13 @@
         <v>4</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16683,13 +16681,13 @@
         <v>4</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16704,10 +16702,10 @@
       </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16721,13 +16719,13 @@
         <v>65</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16741,13 +16739,13 @@
         <v>6</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16761,13 +16759,13 @@
         <v>67</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16781,13 +16779,13 @@
         <v>66</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16801,13 +16799,13 @@
         <v>6</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16821,13 +16819,13 @@
         <v>6</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16841,13 +16839,13 @@
         <v>6</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16861,13 +16859,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16881,13 +16879,13 @@
         <v>6</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16901,13 +16899,13 @@
         <v>4</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16921,13 +16919,13 @@
         <v>6</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16941,13 +16939,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16961,13 +16959,13 @@
         <v>65</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16981,13 +16979,13 @@
         <v>66</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17001,13 +16999,13 @@
         <v>4</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17021,13 +17019,13 @@
         <v>66</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17041,13 +17039,13 @@
         <v>66</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17061,13 +17059,13 @@
         <v>67</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17081,13 +17079,13 @@
         <v>5</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17101,13 +17099,13 @@
         <v>66</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17121,13 +17119,13 @@
         <v>66</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17142,10 +17140,10 @@
       </c>
       <c r="D283" s="14"/>
       <c r="E283" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17159,13 +17157,13 @@
         <v>67</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17179,13 +17177,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17199,13 +17197,13 @@
         <v>4</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E286" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17219,13 +17217,13 @@
         <v>6</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17239,13 +17237,13 @@
         <v>4</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17260,10 +17258,10 @@
       </c>
       <c r="D289" s="14"/>
       <c r="E289" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17278,10 +17276,10 @@
       </c>
       <c r="D290" s="14"/>
       <c r="E290" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17296,10 +17294,10 @@
       </c>
       <c r="D291" s="14"/>
       <c r="E291" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17313,13 +17311,13 @@
         <v>65</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17333,13 +17331,13 @@
         <v>65</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17353,13 +17351,13 @@
         <v>67</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17373,13 +17371,13 @@
         <v>65</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17393,13 +17391,13 @@
         <v>65</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17413,13 +17411,13 @@
         <v>4</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F297" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17433,13 +17431,13 @@
         <v>6</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17453,13 +17451,13 @@
         <v>6</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E299" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17473,13 +17471,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E300" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17493,13 +17491,13 @@
         <v>4</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E301" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17513,13 +17511,13 @@
         <v>65</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E302" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17533,13 +17531,13 @@
         <v>65</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17553,13 +17551,13 @@
         <v>65</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17573,13 +17571,13 @@
         <v>4</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E305" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17593,13 +17591,13 @@
         <v>4</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17613,13 +17611,13 @@
         <v>6</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E307" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17633,13 +17631,13 @@
         <v>5</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17653,13 +17651,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17673,13 +17671,13 @@
         <v>4</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E310" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17693,13 +17691,13 @@
         <v>67</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17713,13 +17711,13 @@
         <v>5</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E312" s="17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17733,13 +17731,13 @@
         <v>5</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17753,13 +17751,13 @@
         <v>66</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17773,13 +17771,13 @@
         <v>66</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E315" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -17793,13 +17791,13 @@
         <v>5</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E316" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F316" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17814,10 +17812,10 @@
       </c>
       <c r="D317" s="14"/>
       <c r="E317" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17831,13 +17829,13 @@
         <v>67</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E318" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17851,13 +17849,13 @@
         <v>65</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E319" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17871,13 +17869,13 @@
         <v>4</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E320" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17891,13 +17889,13 @@
         <v>4</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17911,13 +17909,13 @@
         <v>65</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E322" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F322" s="12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17931,13 +17929,13 @@
         <v>67</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E323" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17951,13 +17949,13 @@
         <v>4</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E324" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17971,13 +17969,13 @@
         <v>4</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E325" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17991,13 +17989,13 @@
         <v>4</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E326" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18011,13 +18009,13 @@
         <v>65</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E327" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F327" s="12" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18031,13 +18029,13 @@
         <v>67</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E328" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F328" s="12" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18051,13 +18049,13 @@
         <v>5</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E329" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18071,13 +18069,13 @@
         <v>5</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E330" s="17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18091,13 +18089,13 @@
         <v>5</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E331" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18111,13 +18109,13 @@
         <v>4</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E332" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18131,13 +18129,13 @@
         <v>4</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E333" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18151,13 +18149,13 @@
         <v>5</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E334" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F334" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18171,13 +18169,13 @@
         <v>66</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E335" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18192,10 +18190,10 @@
       </c>
       <c r="D336" s="8"/>
       <c r="E336" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18209,13 +18207,13 @@
         <v>66</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E337" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18229,13 +18227,13 @@
         <v>65</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E338" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18249,13 +18247,13 @@
         <v>6</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E339" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18269,13 +18267,13 @@
         <v>6</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E340" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18289,13 +18287,13 @@
         <v>6</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E341" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -18870,8 +18868,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18882,7 +18880,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>408</v>
+        <v>1224</v>
       </c>
       <c r="B1" s="44">
         <v>1</v>
@@ -18890,7 +18888,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>409</v>
+        <v>1225</v>
       </c>
       <c r="B2" s="44">
         <v>2</v>
@@ -18898,7 +18896,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B3" s="44">
         <v>3</v>
@@ -18906,7 +18904,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B4" s="44">
         <v>4</v>
@@ -18914,7 +18912,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B5" s="44">
         <v>5</v>
@@ -18922,7 +18920,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="44">
         <v>6</v>
@@ -18930,7 +18928,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="44">
         <v>11</v>
@@ -18938,7 +18936,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B8" s="44">
         <v>7</v>
@@ -18946,7 +18944,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B9" s="44">
         <v>8</v>
@@ -18954,7 +18952,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B10" s="44">
         <v>9</v>
@@ -18962,7 +18960,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B11" s="44">
         <v>10</v>
@@ -18970,7 +18968,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B12" s="44">
         <v>12</v>
@@ -18978,7 +18976,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B13" s="44">
         <v>13</v>
@@ -18986,7 +18984,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B14" s="44">
         <v>14</v>
@@ -18994,7 +18992,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B15" s="44">
         <v>15</v>
@@ -19017,7 +19015,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C49AAE-B82C-D440-8315-DF6E94475C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045CB99-B1C8-8C43-BDC4-2720C05C326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
     <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" r:id="rId9"/>
+    <sheet name="VERSION" sheetId="13" r:id="rId4"/>
+    <sheet name="User Type" sheetId="9" r:id="rId5"/>
+    <sheet name="Services" sheetId="7" r:id="rId6"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
+    <sheet name="Region" sheetId="3" r:id="rId8"/>
+    <sheet name="Roles" sheetId="4" r:id="rId9"/>
+    <sheet name="Validations" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1228">
   <si>
     <t>Region</t>
   </si>
@@ -3720,6 +3725,12 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7513,6 +7524,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
@@ -7719,7 +7755,7 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -11112,6 +11148,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E70726-B66E-5143-A027-80CA7FB124DC}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11156,7 +11215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11538,7 +11597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18771,7 +18830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18861,7 +18920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19001,29 +19060,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/integrationTest/resources/StaffData Upload Suspended.xlsx
+++ b/src/integrationTest/resources/StaffData Upload Suspended.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045CB99-B1C8-8C43-BDC4-2720C05C326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C49AAE-B82C-D440-8315-DF6E94475C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
     <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="VERSION" sheetId="13" r:id="rId4"/>
-    <sheet name="User Type" sheetId="9" r:id="rId5"/>
-    <sheet name="Services" sheetId="7" r:id="rId6"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
-    <sheet name="Region" sheetId="3" r:id="rId8"/>
-    <sheet name="Roles" sheetId="4" r:id="rId9"/>
-    <sheet name="Validations" sheetId="10" r:id="rId10"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,11 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1226">
   <si>
     <t>Region</t>
   </si>
@@ -3725,12 +3720,6 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7524,31 +7513,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
@@ -7755,7 +7719,7 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -11148,29 +11112,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E70726-B66E-5143-A027-80CA7FB124DC}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11215,7 +11156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11597,7 +11538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18830,7 +18771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18920,7 +18861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19060,4 +19001,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>